--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,30 +5,30 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
-    <sheet name="Expedia" sheetId="2" r:id="rId2"/>
-    <sheet name="Twitter" sheetId="3" r:id="rId3"/>
-    <sheet name="Dell" sheetId="4" r:id="rId4"/>
-    <sheet name="IBM" sheetId="5" r:id="rId5"/>
+    <sheet name="Bosch" sheetId="19" r:id="rId2"/>
+    <sheet name="Expedia" sheetId="2" r:id="rId3"/>
+    <sheet name="Twitter" sheetId="3" r:id="rId4"/>
+    <sheet name="Dell" sheetId="4" r:id="rId5"/>
     <sheet name="Adobe" sheetId="6" r:id="rId6"/>
     <sheet name="Oracle" sheetId="7" r:id="rId7"/>
     <sheet name="Amazon" sheetId="8" r:id="rId8"/>
     <sheet name="Snapdeal" sheetId="9" r:id="rId9"/>
     <sheet name="Flipkart" sheetId="10" r:id="rId10"/>
-    <sheet name="Nokia Siemens" sheetId="11" r:id="rId11"/>
-    <sheet name="Alcatel Lucant" sheetId="12" r:id="rId12"/>
-    <sheet name="Symantec" sheetId="13" r:id="rId13"/>
-    <sheet name="NVIDIA" sheetId="14" r:id="rId14"/>
-    <sheet name="HP" sheetId="15" r:id="rId15"/>
-    <sheet name="Ericson" sheetId="16" r:id="rId16"/>
-    <sheet name="SAP" sheetId="17" r:id="rId17"/>
+    <sheet name="NVIDIA" sheetId="14" r:id="rId11"/>
+    <sheet name="HP" sheetId="15" r:id="rId12"/>
+    <sheet name="Ericson" sheetId="16" r:id="rId13"/>
+    <sheet name="SAP" sheetId="17" r:id="rId14"/>
+    <sheet name="JP Morgan" sheetId="18" r:id="rId15"/>
+    <sheet name="eBay" sheetId="20" r:id="rId16"/>
+    <sheet name="payPal" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>Companies</t>
   </si>
@@ -63,18 +63,12 @@
     <t>Oracle</t>
   </si>
   <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
     <t>Google</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
@@ -90,18 +84,6 @@
     <t>VMWare</t>
   </si>
   <si>
-    <t>EMC</t>
-  </si>
-  <si>
-    <t>Nokia Siemens Network</t>
-  </si>
-  <si>
-    <t>Alcatel Lucant</t>
-  </si>
-  <si>
-    <t>Symantec</t>
-  </si>
-  <si>
     <t>NVIDIA</t>
   </si>
   <si>
@@ -193,16 +175,214 @@
   </si>
   <si>
     <t>HTML5, Javascript, Jquery</t>
+  </si>
+  <si>
+    <t>database, web server, API, client side scripting</t>
+  </si>
+  <si>
+    <t>write, tune and debug performance SQL</t>
+  </si>
+  <si>
+    <t>HTML5, javascript, SQL server, Teradata, Hadoop, spark and R</t>
+  </si>
+  <si>
+    <t>java, Linux, Junit, SQL, webservices</t>
+  </si>
+  <si>
+    <t>relational databases, application containers, J2EE services, distributed systems</t>
+  </si>
+  <si>
+    <t>Agile process, Test driven development, design, documentation and code reviews</t>
+  </si>
+  <si>
+    <t>Angular JS</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Sun certified java developer</t>
+  </si>
+  <si>
+    <t>java, SQL, database design and query optimization</t>
+  </si>
+  <si>
+    <t>HTML5, Javascript</t>
+  </si>
+  <si>
+    <t>DOM, Jquery, AJAX, Browser support, HTML5 compatibility</t>
+  </si>
+  <si>
+    <t>Memory/ CPU profiling</t>
+  </si>
+  <si>
+    <t>CSS3</t>
+  </si>
+  <si>
+    <t>Node JS - server side and tooling</t>
+  </si>
+  <si>
+    <t>angular</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>jasmine, karma</t>
+  </si>
+  <si>
+    <t>javascript, splunk</t>
+  </si>
+  <si>
+    <t>git, maven</t>
+  </si>
+  <si>
+    <t>java spring, JMS messaging</t>
+  </si>
+  <si>
+    <t>agile/scrum</t>
+  </si>
+  <si>
+    <t>sonar qube</t>
+  </si>
+  <si>
+    <t>tomcat, websphere</t>
+  </si>
+  <si>
+    <t>SQL, HTML5, Javascript</t>
+  </si>
+  <si>
+    <t>SOAP, XML, REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEE, Jenkins, </t>
+  </si>
+  <si>
+    <t>OS knowledge - Windows, Linux</t>
+  </si>
+  <si>
+    <t>learn scripting languages - ksh, bash, perl</t>
+  </si>
+  <si>
+    <t>xml, xsl, xslt</t>
+  </si>
+  <si>
+    <t>JMS, JNDI, web services</t>
+  </si>
+  <si>
+    <t>TCP/IP suite</t>
+  </si>
+  <si>
+    <t>web servers, application servers, apache tomcat, oracle web logic, Jboss</t>
+  </si>
+  <si>
+    <t>oracle, sql, mysql</t>
+  </si>
+  <si>
+    <t>java, j2ee, struts, spring, hibernate, LDAP Interaction</t>
+  </si>
+  <si>
+    <t>Javascript, web services,css, html, svn, eclipse, intellij</t>
+  </si>
+  <si>
+    <t>object oriented design</t>
+  </si>
+  <si>
+    <t>network programming and multi thread programming</t>
+  </si>
+  <si>
+    <t>postgresql hadoop</t>
+  </si>
+  <si>
+    <t>open stack, docker</t>
+  </si>
+  <si>
+    <t>agile, scrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML, Javascript, Jquery, CSS, Ajax, Json, </t>
+  </si>
+  <si>
+    <t>REST, MVC</t>
+  </si>
+  <si>
+    <t>Java, Java testing frameworks, selenium, web servers</t>
+  </si>
+  <si>
+    <t>databases, REST, Jquery, AJAX</t>
+  </si>
+  <si>
+    <t>JSF, HTML, XML, CSS, Jquery</t>
+  </si>
+  <si>
+    <t>SOA, REST, SOAP, Weblogic</t>
+  </si>
+  <si>
+    <t>Ui Components - tables/trees, LOVs, Queries, menus, popups, toolbars, navigation, input/output components, styles, skins</t>
+  </si>
+  <si>
+    <t>true caller</t>
+  </si>
+  <si>
+    <t>pratishthan</t>
+  </si>
+  <si>
+    <t>amadeus software labs</t>
+  </si>
+  <si>
+    <t>vizury interactive solutions</t>
+  </si>
+  <si>
+    <t>citicorp services india pvt limited</t>
+  </si>
+  <si>
+    <t>ubona technologies</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>webyog</t>
+  </si>
+  <si>
+    <t>mavenir systems</t>
+  </si>
+  <si>
+    <t>unbxd software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -327,21 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -375,14 +540,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,9 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,16 +846,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.5703125" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
     <col min="17" max="17" width="19.85546875" customWidth="1"/>
@@ -692,39 +863,39 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>26</v>
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="C4" t="s">
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,11 +905,11 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,8 +919,8 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -760,8 +931,8 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -772,8 +943,8 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
+      <c r="C8" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -784,7 +955,9 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,106 +965,91 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -902,48 +1060,21 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -958,37 +1089,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -996,11 +1127,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1009,7 +1140,216 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1042,6 +1382,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1056,57 +1417,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1129,22 +1490,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1152,62 +1513,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
